--- a/KAPP.xlsx
+++ b/KAPP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="30720" windowHeight="15564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="410">
   <si>
     <t xml:space="preserve"> language:Kotlin  size:&gt;=1000 stars:&gt;500   pushed:&gt;2023-11-01  android</t>
   </si>
@@ -1145,6 +1145,131 @@
   </si>
   <si>
     <t>https://github.com/streetcomplete/StreetComplete.git</t>
+  </si>
+  <si>
+    <t>ActivityManager</t>
+  </si>
+  <si>
+    <t>应用程序管理与快捷方式创建</t>
+  </si>
+  <si>
+    <t>v5.4.11</t>
+  </si>
+  <si>
+    <t>https://github.com/sdex/ActivityManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ByeDPIAndroid</t>
+  </si>
+  <si>
+    <t>网络审查规避</t>
+  </si>
+  <si>
+    <t>v1.2.0</t>
+  </si>
+  <si>
+    <t>https://github.com/dovecoteescapee/ByeDPIAndroid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TapTap
+</t>
+  </si>
+  <si>
+    <t>手势控制扩展</t>
+  </si>
+  <si>
+    <t>v1.6.2</t>
+  </si>
+  <si>
+    <t>https://github.com/KieronQuinn/TapTap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neko
+</t>
+  </si>
+  <si>
+    <t>漫画阅读与管理</t>
+  </si>
+  <si>
+    <t>v2.18.0</t>
+  </si>
+  <si>
+    <t>https://github.com/nekomangaorg/Neko</t>
+  </si>
+  <si>
+    <t>nextplayer</t>
+  </si>
+  <si>
+    <t>视频播放器</t>
+  </si>
+  <si>
+    <t>v0.12.3</t>
+  </si>
+  <si>
+    <t>https://github.com/anilbeesetti/nextplayer</t>
+  </si>
+  <si>
+    <t>react-native-keychain</t>
+  </si>
+  <si>
+    <t>凭据安全存储</t>
+  </si>
+  <si>
+    <t>3.2k</t>
+  </si>
+  <si>
+    <t>v9.1.0</t>
+  </si>
+  <si>
+    <t>https://github.com/oblador/react-native-keychain</t>
+  </si>
+  <si>
+    <t>Smart-AutoClicker</t>
+  </si>
+  <si>
+    <t>图像开源自动点击器</t>
+  </si>
+  <si>
+    <t>v3.0.6</t>
+  </si>
+  <si>
+    <t>https://github.com/Nain57/Smart-AutoClicker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revanced-patcher
+</t>
+  </si>
+  <si>
+    <t>修补 Android 应用程序</t>
+  </si>
+  <si>
+    <t>v21.0.0</t>
+  </si>
+  <si>
+    <t>https://github.com/ReVanced/revanced-patcher</t>
+  </si>
+  <si>
+    <t>Auxio</t>
+  </si>
+  <si>
+    <t>v3.3.3</t>
+  </si>
+  <si>
+    <t>https://github.com/OxygenCobalt/Auxio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">octo4a
+</t>
+  </si>
+  <si>
+    <t>3D打印远程控制</t>
+  </si>
+  <si>
+    <t>v2.1.0</t>
+  </si>
+  <si>
+    <t>https://github.com/feelfreelinux/octo4a</t>
   </si>
 </sst>
 </file>
@@ -1163,6 +1288,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1193,14 +1326,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1652,12 +1777,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1782,20 +1907,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2118,10 +2248,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A82" sqref="$A82:$XFD82"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -2179,7 +2309,7 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2205,7 +2335,7 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2231,7 +2361,7 @@
       <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2257,7 +2387,7 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2283,7 +2413,7 @@
       <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2309,7 +2439,7 @@
       <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2335,7 +2465,7 @@
       <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2343,7 +2473,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C10">
@@ -2361,7 +2491,7 @@
       <c r="G10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2387,7 +2517,7 @@
       <c r="G11" t="s">
         <v>52</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2395,7 +2525,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="1">
@@ -2413,7 +2543,7 @@
       <c r="G12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2439,7 +2569,7 @@
       <c r="G13" t="s">
         <v>62</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2465,7 +2595,7 @@
       <c r="G14" t="s">
         <v>67</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2491,7 +2621,7 @@
       <c r="G15" t="s">
         <v>72</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2517,7 +2647,7 @@
       <c r="G16" t="s">
         <v>77</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2543,7 +2673,7 @@
       <c r="G17" t="s">
         <v>82</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2569,7 +2699,7 @@
       <c r="G18" t="s">
         <v>87</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2577,7 +2707,7 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C19">
@@ -2595,7 +2725,7 @@
       <c r="G19" t="s">
         <v>92</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2603,7 +2733,7 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C20">
@@ -2621,7 +2751,7 @@
       <c r="G20" t="s">
         <v>97</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2629,7 +2759,7 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C21">
@@ -2647,7 +2777,7 @@
       <c r="G21" t="s">
         <v>102</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2655,7 +2785,7 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C22">
@@ -2673,7 +2803,7 @@
       <c r="G22" t="s">
         <v>107</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2681,7 +2811,7 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C23">
@@ -2699,7 +2829,7 @@
       <c r="G23" t="s">
         <v>110</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2725,7 +2855,7 @@
       <c r="G24" t="s">
         <v>115</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2733,7 +2863,7 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C25">
@@ -2751,7 +2881,7 @@
       <c r="G25" t="s">
         <v>120</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2759,7 +2889,7 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C26">
@@ -2777,7 +2907,7 @@
       <c r="G26" t="s">
         <v>124</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2785,7 +2915,7 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C27">
@@ -2803,7 +2933,7 @@
       <c r="G27" t="s">
         <v>128</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2811,7 +2941,7 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C28">
@@ -2829,7 +2959,7 @@
       <c r="G28" t="s">
         <v>133</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2837,7 +2967,7 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C29">
@@ -2855,7 +2985,7 @@
       <c r="G29" t="s">
         <v>137</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2863,7 +2993,7 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C30">
@@ -2881,7 +3011,7 @@
       <c r="G30" t="s">
         <v>142</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2889,7 +3019,7 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>144</v>
       </c>
       <c r="C31">
@@ -2907,7 +3037,7 @@
       <c r="G31" t="s">
         <v>146</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2915,7 +3045,7 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>148</v>
       </c>
       <c r="C32">
@@ -2933,7 +3063,7 @@
       <c r="G32" t="s">
         <v>150</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2941,7 +3071,7 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C33">
@@ -2959,7 +3089,7 @@
       <c r="G33" t="s">
         <v>155</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2967,7 +3097,7 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C34">
@@ -2985,7 +3115,7 @@
       <c r="G34" t="s">
         <v>159</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2993,7 +3123,7 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C35">
@@ -3011,7 +3141,7 @@
       <c r="G35" t="s">
         <v>164</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3019,7 +3149,7 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C36">
@@ -3037,7 +3167,7 @@
       <c r="G36" t="s">
         <v>168</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3063,7 +3193,7 @@
       <c r="G37" t="s">
         <v>173</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3071,7 +3201,7 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C38">
@@ -3089,7 +3219,7 @@
       <c r="G38" t="s">
         <v>178</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3115,7 +3245,7 @@
       <c r="G39" t="s">
         <v>183</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3123,7 +3253,7 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C40">
@@ -3141,7 +3271,7 @@
       <c r="G40" t="s">
         <v>188</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3167,7 +3297,7 @@
       <c r="G41" t="s">
         <v>192</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3175,7 +3305,7 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>194</v>
       </c>
       <c r="C42">
@@ -3193,7 +3323,7 @@
       <c r="G42" t="s">
         <v>196</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3201,7 +3331,7 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>198</v>
       </c>
       <c r="C43">
@@ -3219,7 +3349,7 @@
       <c r="G43" t="s">
         <v>201</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3227,7 +3357,7 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>203</v>
       </c>
       <c r="C44">
@@ -3245,7 +3375,7 @@
       <c r="G44" t="s">
         <v>206</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3253,7 +3383,7 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="6" t="s">
         <v>208</v>
       </c>
       <c r="C45">
@@ -3271,7 +3401,7 @@
       <c r="G45" t="s">
         <v>210</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3279,7 +3409,7 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C46">
@@ -3288,7 +3418,7 @@
       <c r="D46">
         <v>35</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="8" t="s">
         <v>213</v>
       </c>
       <c r="F46" t="s">
@@ -3297,7 +3427,7 @@
       <c r="G46" t="s">
         <v>214</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3305,7 +3435,7 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>216</v>
       </c>
       <c r="C47">
@@ -3323,7 +3453,7 @@
       <c r="G47" t="s">
         <v>218</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3349,7 +3479,7 @@
       <c r="G48" t="s">
         <v>223</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3357,7 +3487,7 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>225</v>
       </c>
       <c r="C49">
@@ -3375,7 +3505,7 @@
       <c r="G49" t="s">
         <v>226</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3383,7 +3513,7 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>228</v>
       </c>
       <c r="C50">
@@ -3401,7 +3531,7 @@
       <c r="G50" t="s">
         <v>230</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="2" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3409,7 +3539,7 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="6" t="s">
         <v>232</v>
       </c>
       <c r="C51">
@@ -3427,7 +3557,7 @@
       <c r="G51" t="s">
         <v>234</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="2" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3435,7 +3565,7 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="6" t="s">
         <v>236</v>
       </c>
       <c r="C52">
@@ -3453,7 +3583,7 @@
       <c r="G52" t="s">
         <v>239</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3479,7 +3609,7 @@
       <c r="G53" t="s">
         <v>243</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="2" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3487,7 +3617,7 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C54">
@@ -3505,7 +3635,7 @@
       <c r="G54" t="s">
         <v>247</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="2" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3513,7 +3643,7 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="6" t="s">
         <v>249</v>
       </c>
       <c r="C55">
@@ -3531,7 +3661,7 @@
       <c r="G55" t="s">
         <v>251</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3539,7 +3669,7 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="6" t="s">
         <v>253</v>
       </c>
       <c r="C56">
@@ -3557,7 +3687,7 @@
       <c r="G56" t="s">
         <v>256</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3565,7 +3695,7 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="6" t="s">
         <v>258</v>
       </c>
       <c r="C57">
@@ -3583,7 +3713,7 @@
       <c r="G57" t="s">
         <v>260</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3591,7 +3721,7 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="6" t="s">
         <v>262</v>
       </c>
       <c r="C58">
@@ -3609,7 +3739,7 @@
       <c r="G58" t="s">
         <v>264</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3617,7 +3747,7 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="6" t="s">
         <v>266</v>
       </c>
       <c r="C59">
@@ -3635,7 +3765,7 @@
       <c r="G59" t="s">
         <v>268</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3643,7 +3773,7 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C60">
@@ -3661,7 +3791,7 @@
       <c r="G60" t="s">
         <v>272</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3669,7 +3799,7 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="6" t="s">
         <v>274</v>
       </c>
       <c r="C61">
@@ -3687,7 +3817,7 @@
       <c r="G61" t="s">
         <v>276</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3695,7 +3825,7 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="6" t="s">
         <v>278</v>
       </c>
       <c r="C62">
@@ -3713,7 +3843,7 @@
       <c r="G62" t="s">
         <v>281</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3721,7 +3851,7 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="6" t="s">
         <v>283</v>
       </c>
       <c r="C63">
@@ -3739,7 +3869,7 @@
       <c r="G63" t="s">
         <v>286</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="2" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3747,7 +3877,7 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="6" t="s">
         <v>288</v>
       </c>
       <c r="C64">
@@ -3765,7 +3895,7 @@
       <c r="G64" t="s">
         <v>290</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3773,7 +3903,7 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="6" t="s">
         <v>292</v>
       </c>
       <c r="C65">
@@ -3825,7 +3955,7 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="6" t="s">
         <v>301</v>
       </c>
       <c r="C67">
@@ -3851,7 +3981,7 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="6" t="s">
         <v>305</v>
       </c>
       <c r="C68">
@@ -3877,7 +4007,7 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="6" t="s">
         <v>309</v>
       </c>
       <c r="C69">
@@ -3903,7 +4033,7 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="6" t="s">
         <v>314</v>
       </c>
       <c r="C70">
@@ -3929,7 +4059,7 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="6" t="s">
         <v>319</v>
       </c>
       <c r="C71">
@@ -3955,7 +4085,7 @@
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C72">
@@ -3981,7 +4111,7 @@
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="6" t="s">
         <v>329</v>
       </c>
       <c r="C73">
@@ -4007,7 +4137,7 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="6" t="s">
         <v>333</v>
       </c>
       <c r="C74">
@@ -4033,7 +4163,7 @@
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="6" t="s">
         <v>336</v>
       </c>
       <c r="C75">
@@ -4059,7 +4189,7 @@
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="6" t="s">
         <v>341</v>
       </c>
       <c r="C76">
@@ -4085,7 +4215,7 @@
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="6" t="s">
         <v>346</v>
       </c>
       <c r="C77">
@@ -4111,7 +4241,7 @@
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="6" t="s">
         <v>350</v>
       </c>
       <c r="C78">
@@ -4137,7 +4267,7 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="6" t="s">
         <v>354</v>
       </c>
       <c r="C79">
@@ -4189,7 +4319,7 @@
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="6" t="s">
         <v>363</v>
       </c>
       <c r="C81">
@@ -4233,8 +4363,268 @@
       <c r="G82" t="s">
         <v>368</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="2" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>370</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>30</v>
+      </c>
+      <c r="E83" t="s">
+        <v>371</v>
+      </c>
+      <c r="F83">
+        <v>625</v>
+      </c>
+      <c r="G83" t="s">
+        <v>372</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>374</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>375</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>376</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>378</v>
+      </c>
+      <c r="C85">
+        <v>24</v>
+      </c>
+      <c r="D85">
+        <v>29</v>
+      </c>
+      <c r="E85" t="s">
+        <v>379</v>
+      </c>
+      <c r="F85" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>380</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>382</v>
+      </c>
+      <c r="C86">
+        <v>175</v>
+      </c>
+      <c r="D86">
+        <v>140</v>
+      </c>
+      <c r="E86" t="s">
+        <v>383</v>
+      </c>
+      <c r="F86" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" t="s">
+        <v>384</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>386</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>75</v>
+      </c>
+      <c r="E87" t="s">
+        <v>387</v>
+      </c>
+      <c r="F87" t="s">
+        <v>182</v>
+      </c>
+      <c r="G87" t="s">
+        <v>388</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>390</v>
+      </c>
+      <c r="C88">
+        <v>35</v>
+      </c>
+      <c r="D88">
+        <v>91</v>
+      </c>
+      <c r="E88" t="s">
+        <v>391</v>
+      </c>
+      <c r="F88" t="s">
+        <v>392</v>
+      </c>
+      <c r="G88" t="s">
+        <v>393</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>395</v>
+      </c>
+      <c r="C89">
+        <v>52</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>396</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>397</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>399</v>
+      </c>
+      <c r="C90">
+        <v>233</v>
+      </c>
+      <c r="D90">
+        <v>23</v>
+      </c>
+      <c r="E90" t="s">
+        <v>400</v>
+      </c>
+      <c r="F90" t="s">
+        <v>316</v>
+      </c>
+      <c r="G90" t="s">
+        <v>401</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C91">
+        <v>56</v>
+      </c>
+      <c r="D91">
+        <v>96</v>
+      </c>
+      <c r="E91" t="s">
+        <v>306</v>
+      </c>
+      <c r="F91" t="s">
+        <v>326</v>
+      </c>
+      <c r="G91" t="s">
+        <v>404</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>406</v>
+      </c>
+      <c r="C92">
+        <v>37</v>
+      </c>
+      <c r="D92">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>407</v>
+      </c>
+      <c r="F92" t="s">
+        <v>200</v>
+      </c>
+      <c r="G92" t="s">
+        <v>408</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4242,6 +4632,79 @@
     <hyperlink ref="B25" r:id="rId1" display="android-upload-service" tooltip="https://github.com/gotev/android-upload-service"/>
     <hyperlink ref="B30" r:id="rId2" display="orgzly" tooltip="https://github.com/orgzly/orgzly-android"/>
     <hyperlink ref="B31" r:id="rId3" display="SagerNet" tooltip="https://github.com/SagerNet/SagerNet"/>
+    <hyperlink ref="H3" r:id="rId4" display="https://github.com/owncloud/android.git"/>
+    <hyperlink ref="H4" r:id="rId5" display="https://github.com/home-assistant/android.git"/>
+    <hyperlink ref="H5" r:id="rId6" display="https://github.com/owntracks/android.git"/>
+    <hyperlink ref="H6" r:id="rId7" display="https://github.com/duckduckgo/Android.git"/>
+    <hyperlink ref="H7" r:id="rId8" display="https://github.com/meganz/android.git"/>
+    <hyperlink ref="H8" r:id="rId9" display="https://github.com/thunderbird/thunderbird-android.git"/>
+    <hyperlink ref="H9" r:id="rId10" display="https://github.com/facebook/facebook-android-sdk.git"/>
+    <hyperlink ref="H10" r:id="rId11" display="https://github.com/ankidroid/Anki-Android.git"/>
+    <hyperlink ref="H11" r:id="rId12" display="https://github.com/android/compose-samples.git"/>
+    <hyperlink ref="H12" r:id="rId13" display="https://github.com/kickstarter/android-oss.git"/>
+    <hyperlink ref="H13" r:id="rId14" display="https://github.com/wordpress-mobile/WordPress-Android.git"/>
+    <hyperlink ref="H14" r:id="rId15" display="https://github.com/element-hq/element-android.git"/>
+    <hyperlink ref="H15" r:id="rId16" display="https://github.com/quran/quran_android.git"/>
+    <hyperlink ref="H16" r:id="rId17" display="https://github.com/PierfrancescoSoffritti/android-youtube-player.git"/>
+    <hyperlink ref="H17" r:id="rId18" display="https://github.com/square/leakcanary.git"/>
+    <hyperlink ref="H18" r:id="rId19" display="https://github.com/skydoves/chatgpt-android.git"/>
+    <hyperlink ref="H19" r:id="rId20" display="https://github.com/shadowsocks/shadowsocks-android.git"/>
+    <hyperlink ref="H20" r:id="rId21" display="https://github.com/google/flexbox-layout.git"/>
+    <hyperlink ref="H21" r:id="rId22" display="https://github.com/mikepenz/Android-Iconics.git"/>
+    <hyperlink ref="H22" r:id="rId23" display="https://github.com/skydoves/android-developer-roadmap.git"/>
+    <hyperlink ref="H23" r:id="rId24" display="https://github.com/MatsuriDayo/NekoBoxForAndroid.git"/>
+    <hyperlink ref="H24" r:id="rId25" display="https://github.com/android/uamp.git"/>
+    <hyperlink ref="H25" r:id="rId26" display="https://github.com/gotev/android-upload-service.git"/>
+    <hyperlink ref="H26" r:id="rId27" display="https://github.com/stripe/stripe-android.git"/>
+    <hyperlink ref="H27" r:id="rId28" display="https://github.com/HabitRPG/habitica-android.git"/>
+    <hyperlink ref="H28" r:id="rId29" display="https://github.com/jellyfin/jellyfin-androidtv.git"/>
+    <hyperlink ref="H29" r:id="rId30" display="https://github.com/skydoves/AndroidVeil.git"/>
+    <hyperlink ref="H30" r:id="rId31" display="https://github.com/orgzly/orgzly-android.git"/>
+    <hyperlink ref="H31" r:id="rId32" display="https://github.com/SagerNet/SagerNet.git"/>
+    <hyperlink ref="H32" r:id="rId33" display="https://github.com/tailscale/tailscale-android.git"/>
+    <hyperlink ref="H33" r:id="rId34" display="https://github.com/akexorcist/RoundCornerProgressBar.git"/>
+    <hyperlink ref="H34" r:id="rId35" display="https://github.com/kiwix/kiwix-android.git"/>
+    <hyperlink ref="H35" r:id="rId36" display="https://github.com/mozilla-mobile/firefox-android.git"/>
+    <hyperlink ref="H36" r:id="rId37" display="https://github.com/openfoodfacts/openfoodfacts-androidapp.git"/>
+    <hyperlink ref="H37" r:id="rId38" display="https://github.com/ACRA/acra.git"/>
+    <hyperlink ref="H38" r:id="rId39" display="https://github.com/muzei/muzei.git"/>
+    <hyperlink ref="H39" r:id="rId40" display="https://github.com/mpv-android/mpv-android.git"/>
+    <hyperlink ref="H40" r:id="rId41" display="https://github.com/airbnb/mavericks.git"/>
+    <hyperlink ref="H41" r:id="rId42" display="https://github.com/bmax121/APatch.git"/>
+    <hyperlink ref="H42" r:id="rId43" display="https://github.com/rosuH/AndroidFilePicker.git"/>
+    <hyperlink ref="H43" r:id="rId44" display="https://github.com/zhujiang521/PlayAndroid.git"/>
+    <hyperlink ref="H44" r:id="rId45" display="https://github.com/square/picasso.git"/>
+    <hyperlink ref="H45" r:id="rId46" display="https://github.com/android-password-store/Android-Password-Store.git"/>
+    <hyperlink ref="H46" r:id="rId47" display="https://github.com/HMBSbige/ShadowsocksR-Android.git"/>
+    <hyperlink ref="H47" r:id="rId48" display="https://github.com/jellyfin/jellyfin-android.git"/>
+    <hyperlink ref="H82" r:id="rId49" display="https://github.com/streetcomplete/StreetComplete.git"/>
+    <hyperlink ref="H53" r:id="rId50" display="https://github.com/GetStream/stream-chat-android.git"/>
+    <hyperlink ref="H48" r:id="rId51" display="https://github.com/NordicSemiconductor/Android-nRF-Toolbox.git"/>
+    <hyperlink ref="H49" r:id="rId52" display="https://github.com/bugsnag/bugsnag-android.git"/>
+    <hyperlink ref="H50" r:id="rId53" display="https://github.com/horizontalsystems/unstoppable-wallet-android.git"/>
+    <hyperlink ref="H51" r:id="rId54" display="https://github.com/tasks/tasks.git"/>
+    <hyperlink ref="H52" r:id="rId55" display="https://github.com/tiann/KernelSU.git"/>
+    <hyperlink ref="H54" r:id="rId56" display="https://github.com/leandroBorgesFerreira/LoadingButtonAndroid.git"/>
+    <hyperlink ref="H55" r:id="rId57" display="https://github.com/dkrivoruchko/ScreenStream.git"/>
+    <hyperlink ref="H56" r:id="rId58" display="https://github.com/AppIntro/AppIntro.git"/>
+    <hyperlink ref="H57" r:id="rId59" display="https://github.com/CanHub/Android-Image-Cropper.git"/>
+    <hyperlink ref="H58" r:id="rId60" display="https://github.com/2dust/v2rayNG.git"/>
+    <hyperlink ref="H59" r:id="rId61" display="https://github.com/ProtonMail/proton-mail-android.git"/>
+    <hyperlink ref="H60" r:id="rId62" display="https://github.com/yausername/youtubedl-android.git"/>
+    <hyperlink ref="H61" r:id="rId63" display="https://github.com/MikeOrtiz/TouchImageView.git"/>
+    <hyperlink ref="H62" r:id="rId64" display="https://github.com/yairm210/Unciv.git"/>
+    <hyperlink ref="H63" r:id="rId65" display="https://github.com/fcitx5-android/fcitx5-android.git"/>
+    <hyperlink ref="H64" r:id="rId66" display="https://github.com/flipperdevices/Flipper-Android-App.git"/>
+    <hyperlink ref="H83" r:id="rId67" display="https://github.com/sdex/ActivityManager"/>
+    <hyperlink ref="H84" r:id="rId68" display="https://github.com/dovecoteescapee/ByeDPIAndroid"/>
+    <hyperlink ref="H85" r:id="rId69" display="https://github.com/KieronQuinn/TapTap"/>
+    <hyperlink ref="H86" r:id="rId70" display="https://github.com/nekomangaorg/Neko"/>
+    <hyperlink ref="H87" r:id="rId71" display="https://github.com/anilbeesetti/nextplayer"/>
+    <hyperlink ref="H88" r:id="rId72" display="https://github.com/oblador/react-native-keychain"/>
+    <hyperlink ref="H89" r:id="rId73" display="https://github.com/Nain57/Smart-AutoClicker"/>
+    <hyperlink ref="H90" r:id="rId74" display="https://github.com/ReVanced/revanced-patcher"/>
+    <hyperlink ref="H91" r:id="rId75" display="https://github.com/OxygenCobalt/Auxio"/>
+    <hyperlink ref="H92" r:id="rId76" display="https://github.com/feelfreelinux/octo4a"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
